--- a/Base de Datos/EsquemaRelacional10.0.xlsx
+++ b/Base de Datos/EsquemaRelacional10.0.xlsx
@@ -230,7 +230,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t>Nombre, Apellido, Foto, Informacion)</t>
+      <t>Nombre, Apellido, )</t>
     </r>
   </si>
   <si>
@@ -497,6 +497,602 @@
         <rFont val="Calibri"/>
         <color theme="1"/>
       </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>AtletaClub(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>idAtleta</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Juega </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>(idPartido, CodigoEquipo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>, NombreArbitro, Encuentro)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Tiene ( </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>NombreAtleta, ApellidoAtleta, CodigoEquipo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Cuenta (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>CodigoEquipo, NombreStaff, Apellido Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Participan (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>NombreCampeonato, CodigoEquipo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Practican (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>CodigoEquipo, NombreDeporte)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Sigue (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>NombreUsuario, CodEquipo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>(NombreDeportes, NombreNoticias, FechaNoticia</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Aparece </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>(NombreUsuario, IdPublicidad</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Pasan</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>(IdEvento, CodigoEquipo, idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Sucede (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>IdEvento</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> CodPais</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Convocado</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>idSeleccionado,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>CodPais,idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Compite(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>CodPais,idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, NombreArbitro)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Posee(N</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>ombreStaff,ApellidoStaff,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>CodPais)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Concurre</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>(CodPais,NombreCampeonatoInternacional</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ocurren</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>(idPartido,NombreCampeonato)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Lee(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>NombreUsuario,NombreNoticia</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Llegan(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>NombreUsuario, IdNotificacion</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Acerca(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>IdNotificacion,CodEquipo, idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Acontece(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>idPartido, NombreCampeonato</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Ostenta(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>IdResultado,idPartido,CodEquipo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
       <t>,Puntaje)</t>
     </r>
   </si>
@@ -506,602 +1102,6 @@
         <rFont val="Calibri"/>
         <color theme="1"/>
       </rPr>
-      <t>AtletaClub(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <u/>
-      </rPr>
-      <t>idAtleta</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Juega </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>(idPartido, CodigoEquipo</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>, NombreArbitro, Encuentro)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Tiene ( </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>NombreAtleta, ApellidoAtleta, CodigoEquipo</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Cuenta (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>CodigoEquipo, NombreStaff, Apellido Staff</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Participan (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>NombreCampeonato, CodigoEquipo</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Practican (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>CodigoEquipo, NombreDeporte)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Sigue (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>NombreUsuario, CodEquipo</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Sobre </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>(NombreDeportes, NombreNoticias, FechaNoticia</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Aparece </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>(NombreUsuario, IdPublicidad</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Pasan</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>(IdEvento, CodigoEquipo, idPartido</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Sucede (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>IdEvento</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> CodPais</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> idPartido</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Convocado</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>idSeleccionado,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>CodPais,idPartido</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Compite(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>CodPais,idPartido</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>, NombreArbitro)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Posee(N</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>ombreStaff,ApellidoStaff,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>CodPais)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Concurre</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>(CodPais,NombreCampeonatoInternacional</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Ocurren</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>(idPartido,NombreCampeonato)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Lee(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>NombreUsuario,NombreNoticia</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Llegan(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>NombreUsuario, IdNotificacion</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Acerca(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>IdNotificacion,CodEquipo, idPartido</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Acontece(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>idPartido, NombreCampeonato</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t>Ostenta(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <u/>
-      </rPr>
-      <t>IdResultado</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t>,idPartido)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
       <t>Incluye(</t>
     </r>
     <r>
@@ -1110,14 +1110,14 @@
         <color theme="1"/>
         <u/>
       </rPr>
-      <t>IdResultado</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t>,CodPais,idPartido)</t>
+      <t>IdResultado,CodPais,idPartido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>,Puntaje)</t>
     </r>
   </si>
   <si>
@@ -1190,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1204,16 +1204,13 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,12 +1622,12 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
